--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\Hybrid_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD1E817-8C2C-4811-B218-496DBAFA01A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8220494-DBCC-4435-AF75-6B69D50BA888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51966BDA-A670-4943-95BF-6B15F23536D2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>actual</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAA0C05-8E65-44A2-80EA-6FAA858D2F45}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,9 +431,10 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +444,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -452,7 +459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -463,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -474,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -485,7 +492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
